--- a/other files/EMSL_IDs_allsamples.xlsx
+++ b/other files/EMSL_IDs_allsamples.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myer056/GitHub/tempest_ionic_strength/other files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimj704/Github/tempest_ionic_strength/other files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA40377-450F-C345-A67A-F8A63346E3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD2E301-1081-974A-9419-985FFE2D4184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="2660" windowWidth="27640" windowHeight="16940" xr2:uid="{BCD6F2D9-EAA0-D14E-9706-0C9C98D0223A}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{BCD6F2D9-EAA0-D14E-9706-0C9C98D0223A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="700">
   <si>
     <t>EUP60985_01</t>
   </si>
@@ -1110,19 +1110,1057 @@
   </si>
   <si>
     <t>TMP_25.C.6_EXP</t>
+  </si>
+  <si>
+    <t>TMP_IS_1_A</t>
+  </si>
+  <si>
+    <t>TMP_IS_2_A</t>
+  </si>
+  <si>
+    <t>TMP_IS_2_B</t>
+  </si>
+  <si>
+    <t>TMP_IS_2_C</t>
+  </si>
+  <si>
+    <t>TMP_IS_3_A</t>
+  </si>
+  <si>
+    <t>TMP_IS_3_B</t>
+  </si>
+  <si>
+    <t>TMP_IS_3_C</t>
+  </si>
+  <si>
+    <t>TMP_IS_4_A</t>
+  </si>
+  <si>
+    <t>TMP_IS_4_B</t>
+  </si>
+  <si>
+    <t>TMP_IS_4_C</t>
+  </si>
+  <si>
+    <t>TMP_IS_5_A</t>
+  </si>
+  <si>
+    <t>TMP_IS_5_B</t>
+  </si>
+  <si>
+    <t>TMP_IS_5_C</t>
+  </si>
+  <si>
+    <t>TMP_IS_6_A</t>
+  </si>
+  <si>
+    <t>TMP_IS_6_B</t>
+  </si>
+  <si>
+    <t>TMP_IS_6_C</t>
+  </si>
+  <si>
+    <t>TMP_IS_7_A</t>
+  </si>
+  <si>
+    <t>TMP_IS_7_B</t>
+  </si>
+  <si>
+    <t>TMP_IS_7_C</t>
+  </si>
+  <si>
+    <t>TMP_IS_8_A</t>
+  </si>
+  <si>
+    <t>TMP_IS_9_A</t>
+  </si>
+  <si>
+    <t>TMP_IS_9_B</t>
+  </si>
+  <si>
+    <t>TMP_IS_9_C</t>
+  </si>
+  <si>
+    <t>TMP_IS_10_A</t>
+  </si>
+  <si>
+    <t>TMP_IS_10_B</t>
+  </si>
+  <si>
+    <t>TMP_IS_10_C</t>
+  </si>
+  <si>
+    <t>TMP_IS_11_A</t>
+  </si>
+  <si>
+    <t>TMP_IS_11_B</t>
+  </si>
+  <si>
+    <t>TMP_IS_11_C</t>
+  </si>
+  <si>
+    <t>TMP_IS_12_A</t>
+  </si>
+  <si>
+    <t>TMP_IS_12_B</t>
+  </si>
+  <si>
+    <t>TMP_IS_12_C</t>
+  </si>
+  <si>
+    <t>TMP_IS_13_A</t>
+  </si>
+  <si>
+    <t>TMP_IS_13_B</t>
+  </si>
+  <si>
+    <t>TMP_IS_13_C</t>
+  </si>
+  <si>
+    <t>TMP_IS_14_A</t>
+  </si>
+  <si>
+    <t>TMP_IS_14_B</t>
+  </si>
+  <si>
+    <t>TMP_IS_14_C</t>
+  </si>
+  <si>
+    <t>TMP_IS_15_A</t>
+  </si>
+  <si>
+    <t>TMP_IS_16_A</t>
+  </si>
+  <si>
+    <t>TMP_IS_16_B</t>
+  </si>
+  <si>
+    <t>TMP_IS_16_C</t>
+  </si>
+  <si>
+    <t>TMP_IS_17_A</t>
+  </si>
+  <si>
+    <t>TMP_IS_17_B</t>
+  </si>
+  <si>
+    <t>TMP_IS_17_C</t>
+  </si>
+  <si>
+    <t>TMP_IS_18_A</t>
+  </si>
+  <si>
+    <t>TMP_IS_18_B</t>
+  </si>
+  <si>
+    <t>TMP_IS_18_C</t>
+  </si>
+  <si>
+    <t>TMP_IS_19_A</t>
+  </si>
+  <si>
+    <t>TMP_IS_19_B</t>
+  </si>
+  <si>
+    <t>TMP_IS_19_C</t>
+  </si>
+  <si>
+    <t>TMP_IS_20_A</t>
+  </si>
+  <si>
+    <t>TMP_IS_20_B</t>
+  </si>
+  <si>
+    <t>TMP_IS_20_C</t>
+  </si>
+  <si>
+    <t>TMP_IS_21_A</t>
+  </si>
+  <si>
+    <t>TMP_IS_21_B</t>
+  </si>
+  <si>
+    <t>TMP_IS_21_C</t>
+  </si>
+  <si>
+    <t>TMP_IS_22_A</t>
+  </si>
+  <si>
+    <t>TMP_IS_23_A</t>
+  </si>
+  <si>
+    <t>TMP_IS_23_B</t>
+  </si>
+  <si>
+    <t>TMP_IS_23_C</t>
+  </si>
+  <si>
+    <t>TMP_IS_24_A</t>
+  </si>
+  <si>
+    <t>TMP_IS_24_B</t>
+  </si>
+  <si>
+    <t>TMP_IS_24_C</t>
+  </si>
+  <si>
+    <t>TMP_IS_25_A</t>
+  </si>
+  <si>
+    <t>TMP_IS_25_B</t>
+  </si>
+  <si>
+    <t>TMP_IS_25_C</t>
+  </si>
+  <si>
+    <t>TMP_IS_26_A</t>
+  </si>
+  <si>
+    <t>TMP_IS_26_B</t>
+  </si>
+  <si>
+    <t>TMP_IS_26_C</t>
+  </si>
+  <si>
+    <t>TMP_IS_27_A</t>
+  </si>
+  <si>
+    <t>TMP_IS_27_B</t>
+  </si>
+  <si>
+    <t>TMP_IS_27_C</t>
+  </si>
+  <si>
+    <t>TMP_IS_28_A</t>
+  </si>
+  <si>
+    <t>TMP_IS_28_B</t>
+  </si>
+  <si>
+    <t>TMP_IS_28_C</t>
+  </si>
+  <si>
+    <t>TMP_IS_29_A</t>
+  </si>
+  <si>
+    <t>TMP_IS_30_A</t>
+  </si>
+  <si>
+    <t>TMP_IS_30_B</t>
+  </si>
+  <si>
+    <t>TMP_IS_30_C</t>
+  </si>
+  <si>
+    <t>TMP_IS_31_A</t>
+  </si>
+  <si>
+    <t>TMP_IS_31_B</t>
+  </si>
+  <si>
+    <t>TMP_IS_31_C</t>
+  </si>
+  <si>
+    <t>TMP_IS_32_A</t>
+  </si>
+  <si>
+    <t>TMP_IS_32_B</t>
+  </si>
+  <si>
+    <t>TMP_IS_32_C</t>
+  </si>
+  <si>
+    <t>TMP_IS_33_A</t>
+  </si>
+  <si>
+    <t>TMP_IS_33_B</t>
+  </si>
+  <si>
+    <t>TMP_IS_33_C</t>
+  </si>
+  <si>
+    <t>TMP_IS_34_A</t>
+  </si>
+  <si>
+    <t>TMP_IS_34_B</t>
+  </si>
+  <si>
+    <t>TMP_IS_34_C</t>
+  </si>
+  <si>
+    <t>TMP_IS_35_A</t>
+  </si>
+  <si>
+    <t>TMP_IS_35_B</t>
+  </si>
+  <si>
+    <t>TMP_IS_35_C</t>
+  </si>
+  <si>
+    <t>TMP_IS_36_A</t>
+  </si>
+  <si>
+    <t>TMP_IS_37_A</t>
+  </si>
+  <si>
+    <t>TMP_IS_37_B</t>
+  </si>
+  <si>
+    <t>TMP_IS_37_C</t>
+  </si>
+  <si>
+    <t>TMP_IS_38_A</t>
+  </si>
+  <si>
+    <t>TMP_IS_38_B</t>
+  </si>
+  <si>
+    <t>TMP_IS_38_C</t>
+  </si>
+  <si>
+    <t>TMP_IS_39_A</t>
+  </si>
+  <si>
+    <t>TMP_IS_39_B</t>
+  </si>
+  <si>
+    <t>TMP_IS_39_C</t>
+  </si>
+  <si>
+    <t>TMP_IS_40_A</t>
+  </si>
+  <si>
+    <t>TMP_IS_40_B</t>
+  </si>
+  <si>
+    <t>TMP_IS_40_C</t>
+  </si>
+  <si>
+    <t>TMP_IS_41_A</t>
+  </si>
+  <si>
+    <t>TMP_IS_41_B</t>
+  </si>
+  <si>
+    <t>TMP_IS_41_C</t>
+  </si>
+  <si>
+    <t>TMP_IS_42_A</t>
+  </si>
+  <si>
+    <t>TMP_IS_42_B</t>
+  </si>
+  <si>
+    <t>TMP_IS_42_C</t>
+  </si>
+  <si>
+    <t>EUP60985_122</t>
+  </si>
+  <si>
+    <t>EUP60985_123</t>
+  </si>
+  <si>
+    <t>EUP60985_124</t>
+  </si>
+  <si>
+    <t>EUP60985_125</t>
+  </si>
+  <si>
+    <t>EUP60985_126</t>
+  </si>
+  <si>
+    <t>EUP60985_127</t>
+  </si>
+  <si>
+    <t>EUP60985_128</t>
+  </si>
+  <si>
+    <t>EUP60985_129</t>
+  </si>
+  <si>
+    <t>EUP60985_130</t>
+  </si>
+  <si>
+    <t>EUP60985_131</t>
+  </si>
+  <si>
+    <t>EUP60985_132</t>
+  </si>
+  <si>
+    <t>EUP60985_133</t>
+  </si>
+  <si>
+    <t>EUP60985_134</t>
+  </si>
+  <si>
+    <t>EUP60985_135</t>
+  </si>
+  <si>
+    <t>EUP60985_136</t>
+  </si>
+  <si>
+    <t>EUP60985_137</t>
+  </si>
+  <si>
+    <t>EUP60985_138</t>
+  </si>
+  <si>
+    <t>EUP60985_139</t>
+  </si>
+  <si>
+    <t>EUP60985_140</t>
+  </si>
+  <si>
+    <t>EUP60985_141</t>
+  </si>
+  <si>
+    <t>EUP60985_142</t>
+  </si>
+  <si>
+    <t>EUP60985_143</t>
+  </si>
+  <si>
+    <t>EUP60985_144</t>
+  </si>
+  <si>
+    <t>EUP60985_145</t>
+  </si>
+  <si>
+    <t>EUP60985_146</t>
+  </si>
+  <si>
+    <t>EUP60985_147</t>
+  </si>
+  <si>
+    <t>EUP60985_148</t>
+  </si>
+  <si>
+    <t>EUP60985_149</t>
+  </si>
+  <si>
+    <t>EUP60985_150</t>
+  </si>
+  <si>
+    <t>EUP60985_151</t>
+  </si>
+  <si>
+    <t>EUP60985_152</t>
+  </si>
+  <si>
+    <t>EUP60985_153</t>
+  </si>
+  <si>
+    <t>EUP60985_154</t>
+  </si>
+  <si>
+    <t>EUP60985_155</t>
+  </si>
+  <si>
+    <t>EUP60985_156</t>
+  </si>
+  <si>
+    <t>EUP60985_157</t>
+  </si>
+  <si>
+    <t>EUP60985_158</t>
+  </si>
+  <si>
+    <t>EUP60985_159</t>
+  </si>
+  <si>
+    <t>EUP60985_160</t>
+  </si>
+  <si>
+    <t>EUP60985_161</t>
+  </si>
+  <si>
+    <t>EUP60985_162</t>
+  </si>
+  <si>
+    <t>EUP60985_163</t>
+  </si>
+  <si>
+    <t>EUP60985_164</t>
+  </si>
+  <si>
+    <t>EUP60985_165</t>
+  </si>
+  <si>
+    <t>EUP60985_166</t>
+  </si>
+  <si>
+    <t>EUP60985_167</t>
+  </si>
+  <si>
+    <t>EUP60985_168</t>
+  </si>
+  <si>
+    <t>EUP60985_169</t>
+  </si>
+  <si>
+    <t>EUP60985_170</t>
+  </si>
+  <si>
+    <t>EUP60985_171</t>
+  </si>
+  <si>
+    <t>EUP60985_172</t>
+  </si>
+  <si>
+    <t>EUP60985_173</t>
+  </si>
+  <si>
+    <t>EUP60985_174</t>
+  </si>
+  <si>
+    <t>EUP60985_175</t>
+  </si>
+  <si>
+    <t>EUP60985_176</t>
+  </si>
+  <si>
+    <t>EUP60985_177</t>
+  </si>
+  <si>
+    <t>EUP60985_178</t>
+  </si>
+  <si>
+    <t>EUP60985_179</t>
+  </si>
+  <si>
+    <t>EUP60985_180</t>
+  </si>
+  <si>
+    <t>EUP60985_181</t>
+  </si>
+  <si>
+    <t>EUP60985_182</t>
+  </si>
+  <si>
+    <t>EUP60985_183</t>
+  </si>
+  <si>
+    <t>EUP60985_184</t>
+  </si>
+  <si>
+    <t>EUP60985_185</t>
+  </si>
+  <si>
+    <t>EUP60985_186</t>
+  </si>
+  <si>
+    <t>EUP60985_187</t>
+  </si>
+  <si>
+    <t>EUP60985_188</t>
+  </si>
+  <si>
+    <t>EUP60985_189</t>
+  </si>
+  <si>
+    <t>EUP60985_190</t>
+  </si>
+  <si>
+    <t>EUP60985_191</t>
+  </si>
+  <si>
+    <t>EUP60985_192</t>
+  </si>
+  <si>
+    <t>EUP60985_193</t>
+  </si>
+  <si>
+    <t>EUP60985_194</t>
+  </si>
+  <si>
+    <t>EUP60985_195</t>
+  </si>
+  <si>
+    <t>EUP60985_196</t>
+  </si>
+  <si>
+    <t>EUP60985_197</t>
+  </si>
+  <si>
+    <t>EUP60985_198</t>
+  </si>
+  <si>
+    <t>EUP60985_199</t>
+  </si>
+  <si>
+    <t>EUP60985_200</t>
+  </si>
+  <si>
+    <t>EUP60985_201</t>
+  </si>
+  <si>
+    <t>EUP60985_202</t>
+  </si>
+  <si>
+    <t>EUP60985_203</t>
+  </si>
+  <si>
+    <t>EUP60985_204</t>
+  </si>
+  <si>
+    <t>EUP60985_205</t>
+  </si>
+  <si>
+    <t>EUP60985_206</t>
+  </si>
+  <si>
+    <t>EUP60985_207</t>
+  </si>
+  <si>
+    <t>EUP60985_208</t>
+  </si>
+  <si>
+    <t>EUP60985_209</t>
+  </si>
+  <si>
+    <t>EUP60985_210</t>
+  </si>
+  <si>
+    <t>EUP60985_211</t>
+  </si>
+  <si>
+    <t>EUP60985_212</t>
+  </si>
+  <si>
+    <t>EUP60985_213</t>
+  </si>
+  <si>
+    <t>EUP60985_214</t>
+  </si>
+  <si>
+    <t>EUP60985_215</t>
+  </si>
+  <si>
+    <t>EUP60985_216</t>
+  </si>
+  <si>
+    <t>EUP60985_217</t>
+  </si>
+  <si>
+    <t>EUP60985_218</t>
+  </si>
+  <si>
+    <t>EUP60985_219</t>
+  </si>
+  <si>
+    <t>EUP60985_220</t>
+  </si>
+  <si>
+    <t>EUP60985_221</t>
+  </si>
+  <si>
+    <t>EUP60985_222</t>
+  </si>
+  <si>
+    <t>EUP60985_223</t>
+  </si>
+  <si>
+    <t>EUP60985_224</t>
+  </si>
+  <si>
+    <t>EUP60985_225</t>
+  </si>
+  <si>
+    <t>EUP60985_226</t>
+  </si>
+  <si>
+    <t>EUP60985_227</t>
+  </si>
+  <si>
+    <t>EUP60985_228</t>
+  </si>
+  <si>
+    <t>EUP60985_229</t>
+  </si>
+  <si>
+    <t>EUP60985_230</t>
+  </si>
+  <si>
+    <t>EUP60985_231</t>
+  </si>
+  <si>
+    <t>EUP60985_232</t>
+  </si>
+  <si>
+    <t>EUP60985_233</t>
+  </si>
+  <si>
+    <t>EUP60985_234</t>
+  </si>
+  <si>
+    <t>EUP60985_235</t>
+  </si>
+  <si>
+    <t>TMP_IS_1_A ; leached with  0 % artificial seawater, wash  0</t>
+  </si>
+  <si>
+    <t>TMP_IS_2_A ; leached with  0 % artificial seawater, wash  1</t>
+  </si>
+  <si>
+    <t>TMP_IS_2_B ; leached with  0 % artificial seawater, wash  1</t>
+  </si>
+  <si>
+    <t>TMP_IS_2_C ; leached with  0 % artificial seawater, wash  1</t>
+  </si>
+  <si>
+    <t>TMP_IS_3_A ; leached with  0 % artificial seawater, wash  2</t>
+  </si>
+  <si>
+    <t>TMP_IS_3_B ; leached with  0 % artificial seawater, wash  2</t>
+  </si>
+  <si>
+    <t>TMP_IS_3_C ; leached with  0 % artificial seawater, wash  2</t>
+  </si>
+  <si>
+    <t>TMP_IS_4_A ; leached with  0 % artificial seawater, wash  3</t>
+  </si>
+  <si>
+    <t>TMP_IS_4_B ; leached with  0 % artificial seawater, wash  3</t>
+  </si>
+  <si>
+    <t>TMP_IS_4_C ; leached with  0 % artificial seawater, wash  3</t>
+  </si>
+  <si>
+    <t>TMP_IS_5_A ; leached with  0 % artificial seawater, wash  4</t>
+  </si>
+  <si>
+    <t>TMP_IS_5_B ; leached with  0 % artificial seawater, wash  4</t>
+  </si>
+  <si>
+    <t>TMP_IS_5_C ; leached with  0 % artificial seawater, wash  4</t>
+  </si>
+  <si>
+    <t>TMP_IS_6_A ; leached with  0 % artificial seawater, wash  5</t>
+  </si>
+  <si>
+    <t>TMP_IS_6_B ; leached with  0 % artificial seawater, wash  5</t>
+  </si>
+  <si>
+    <t>TMP_IS_6_C ; leached with  0 % artificial seawater, wash  5</t>
+  </si>
+  <si>
+    <t>TMP_IS_7_A ; leached with  0 % artificial seawater, wash  6</t>
+  </si>
+  <si>
+    <t>TMP_IS_7_B ; leached with  0 % artificial seawater, wash  6</t>
+  </si>
+  <si>
+    <t>TMP_IS_7_C ; leached with  0 % artificial seawater, wash  6</t>
+  </si>
+  <si>
+    <t>TMP_IS_8_A ; leached with  0.1 % artificial seawater, wash  0</t>
+  </si>
+  <si>
+    <t>TMP_IS_9_A ; leached with  0.1 % artificial seawater, wash  1</t>
+  </si>
+  <si>
+    <t>TMP_IS_9_B ; leached with  0.1 % artificial seawater, wash  1</t>
+  </si>
+  <si>
+    <t>TMP_IS_9_C ; leached with  0.1 % artificial seawater, wash  1</t>
+  </si>
+  <si>
+    <t>TMP_IS_10_A ; leached with  0.1 % artificial seawater, wash  2</t>
+  </si>
+  <si>
+    <t>TMP_IS_10_B ; leached with  0.1 % artificial seawater, wash  2</t>
+  </si>
+  <si>
+    <t>TMP_IS_10_C ; leached with  0.1 % artificial seawater, wash  2</t>
+  </si>
+  <si>
+    <t>TMP_IS_11_A ; leached with  0.1 % artificial seawater, wash  3</t>
+  </si>
+  <si>
+    <t>TMP_IS_11_B ; leached with  0.1 % artificial seawater, wash  3</t>
+  </si>
+  <si>
+    <t>TMP_IS_11_C ; leached with  0.1 % artificial seawater, wash  3</t>
+  </si>
+  <si>
+    <t>TMP_IS_12_A ; leached with  0.1 % artificial seawater, wash  4</t>
+  </si>
+  <si>
+    <t>TMP_IS_12_B ; leached with  0.1 % artificial seawater, wash  4</t>
+  </si>
+  <si>
+    <t>TMP_IS_12_C ; leached with  0.1 % artificial seawater, wash  4</t>
+  </si>
+  <si>
+    <t>TMP_IS_13_A ; leached with  0.1 % artificial seawater, wash  5</t>
+  </si>
+  <si>
+    <t>TMP_IS_13_B ; leached with  0.1 % artificial seawater, wash  5</t>
+  </si>
+  <si>
+    <t>TMP_IS_13_C ; leached with  0.1 % artificial seawater, wash  5</t>
+  </si>
+  <si>
+    <t>TMP_IS_14_A ; leached with  0.1 % artificial seawater, wash  6</t>
+  </si>
+  <si>
+    <t>TMP_IS_14_B ; leached with  0.1 % artificial seawater, wash  6</t>
+  </si>
+  <si>
+    <t>TMP_IS_14_C ; leached with  0.1 % artificial seawater, wash  6</t>
+  </si>
+  <si>
+    <t>TMP_IS_15_A ; leached with  1 % artificial seawater, wash  0</t>
+  </si>
+  <si>
+    <t>TMP_IS_16_A ; leached with  1 % artificial seawater, wash  1</t>
+  </si>
+  <si>
+    <t>TMP_IS_16_B ; leached with  1 % artificial seawater, wash  1</t>
+  </si>
+  <si>
+    <t>TMP_IS_16_C ; leached with  1 % artificial seawater, wash  1</t>
+  </si>
+  <si>
+    <t>TMP_IS_17_A ; leached with  1 % artificial seawater, wash  2</t>
+  </si>
+  <si>
+    <t>TMP_IS_17_B ; leached with  1 % artificial seawater, wash  2</t>
+  </si>
+  <si>
+    <t>TMP_IS_17_C ; leached with  1 % artificial seawater, wash  2</t>
+  </si>
+  <si>
+    <t>TMP_IS_18_A ; leached with  1 % artificial seawater, wash  3</t>
+  </si>
+  <si>
+    <t>TMP_IS_18_B ; leached with  1 % artificial seawater, wash  3</t>
+  </si>
+  <si>
+    <t>TMP_IS_18_C ; leached with  1 % artificial seawater, wash  3</t>
+  </si>
+  <si>
+    <t>TMP_IS_19_A ; leached with  1 % artificial seawater, wash  4</t>
+  </si>
+  <si>
+    <t>TMP_IS_19_B ; leached with  1 % artificial seawater, wash  4</t>
+  </si>
+  <si>
+    <t>TMP_IS_19_C ; leached with  1 % artificial seawater, wash  4</t>
+  </si>
+  <si>
+    <t>TMP_IS_20_A ; leached with  1 % artificial seawater, wash  5</t>
+  </si>
+  <si>
+    <t>TMP_IS_20_B ; leached with  1 % artificial seawater, wash  5</t>
+  </si>
+  <si>
+    <t>TMP_IS_20_C ; leached with  1 % artificial seawater, wash  5</t>
+  </si>
+  <si>
+    <t>TMP_IS_21_A ; leached with  1 % artificial seawater, wash  6</t>
+  </si>
+  <si>
+    <t>TMP_IS_21_B ; leached with  1 % artificial seawater, wash  6</t>
+  </si>
+  <si>
+    <t>TMP_IS_21_C ; leached with  1 % artificial seawater, wash  6</t>
+  </si>
+  <si>
+    <t>TMP_IS_22_A ; leached with  5 % artificial seawater, wash  0</t>
+  </si>
+  <si>
+    <t>TMP_IS_23_A ; leached with  5 % artificial seawater, wash  1</t>
+  </si>
+  <si>
+    <t>TMP_IS_23_B ; leached with  5 % artificial seawater, wash  1</t>
+  </si>
+  <si>
+    <t>TMP_IS_23_C ; leached with  5 % artificial seawater, wash  1</t>
+  </si>
+  <si>
+    <t>TMP_IS_24_A ; leached with  5 % artificial seawater, wash  2</t>
+  </si>
+  <si>
+    <t>TMP_IS_24_B ; leached with  5 % artificial seawater, wash  2</t>
+  </si>
+  <si>
+    <t>TMP_IS_24_C ; leached with  5 % artificial seawater, wash  2</t>
+  </si>
+  <si>
+    <t>TMP_IS_25_A ; leached with  5 % artificial seawater, wash  3</t>
+  </si>
+  <si>
+    <t>TMP_IS_25_B ; leached with  5 % artificial seawater, wash  3</t>
+  </si>
+  <si>
+    <t>TMP_IS_25_C ; leached with  5 % artificial seawater, wash  3</t>
+  </si>
+  <si>
+    <t>TMP_IS_26_A ; leached with  5 % artificial seawater, wash  4</t>
+  </si>
+  <si>
+    <t>TMP_IS_26_B ; leached with  5 % artificial seawater, wash  4</t>
+  </si>
+  <si>
+    <t>TMP_IS_26_C ; leached with  5 % artificial seawater, wash  4</t>
+  </si>
+  <si>
+    <t>TMP_IS_27_A ; leached with  5 % artificial seawater, wash  5</t>
+  </si>
+  <si>
+    <t>TMP_IS_27_B ; leached with  5 % artificial seawater, wash  5</t>
+  </si>
+  <si>
+    <t>TMP_IS_27_C ; leached with  5 % artificial seawater, wash  5</t>
+  </si>
+  <si>
+    <t>TMP_IS_28_A ; leached with  5 % artificial seawater, wash  6</t>
+  </si>
+  <si>
+    <t>TMP_IS_28_B ; leached with  5 % artificial seawater, wash  6</t>
+  </si>
+  <si>
+    <t>TMP_IS_28_C ; leached with  5 % artificial seawater, wash  6</t>
+  </si>
+  <si>
+    <t>TMP_IS_29_A ; leached with  25 % artificial seawater, wash  0</t>
+  </si>
+  <si>
+    <t>TMP_IS_30_A ; leached with  25 % artificial seawater, wash  1</t>
+  </si>
+  <si>
+    <t>TMP_IS_30_B ; leached with  25 % artificial seawater, wash  1</t>
+  </si>
+  <si>
+    <t>TMP_IS_30_C ; leached with  25 % artificial seawater, wash  1</t>
+  </si>
+  <si>
+    <t>TMP_IS_31_A ; leached with  25 % artificial seawater, wash  2</t>
+  </si>
+  <si>
+    <t>TMP_IS_31_B ; leached with  25 % artificial seawater, wash  2</t>
+  </si>
+  <si>
+    <t>TMP_IS_31_C ; leached with  25 % artificial seawater, wash  2</t>
+  </si>
+  <si>
+    <t>TMP_IS_32_A ; leached with  25 % artificial seawater, wash  3</t>
+  </si>
+  <si>
+    <t>TMP_IS_32_B ; leached with  25 % artificial seawater, wash  3</t>
+  </si>
+  <si>
+    <t>TMP_IS_32_C ; leached with  25 % artificial seawater, wash  3</t>
+  </si>
+  <si>
+    <t>TMP_IS_33_A ; leached with  25 % artificial seawater, wash  4</t>
+  </si>
+  <si>
+    <t>TMP_IS_33_B ; leached with  25 % artificial seawater, wash  4</t>
+  </si>
+  <si>
+    <t>TMP_IS_33_C ; leached with  25 % artificial seawater, wash  4</t>
+  </si>
+  <si>
+    <t>TMP_IS_34_A ; leached with  25 % artificial seawater, wash  5</t>
+  </si>
+  <si>
+    <t>TMP_IS_34_B ; leached with  25 % artificial seawater, wash  5</t>
+  </si>
+  <si>
+    <t>TMP_IS_34_C ; leached with  25 % artificial seawater, wash  5</t>
+  </si>
+  <si>
+    <t>TMP_IS_35_A ; leached with  25 % artificial seawater, wash  6</t>
+  </si>
+  <si>
+    <t>TMP_IS_35_B ; leached with  25 % artificial seawater, wash  6</t>
+  </si>
+  <si>
+    <t>TMP_IS_35_C ; leached with  25 % artificial seawater, wash  6</t>
+  </si>
+  <si>
+    <t>TMP_IS_36_A ; leached with  100 % artificial seawater, wash  0</t>
+  </si>
+  <si>
+    <t>TMP_IS_37_A ; leached with  100 % artificial seawater, wash  1</t>
+  </si>
+  <si>
+    <t>TMP_IS_37_B ; leached with  100 % artificial seawater, wash  1</t>
+  </si>
+  <si>
+    <t>TMP_IS_37_C ; leached with  100 % artificial seawater, wash  1</t>
+  </si>
+  <si>
+    <t>TMP_IS_38_A ; leached with  100 % artificial seawater, wash  2</t>
+  </si>
+  <si>
+    <t>TMP_IS_38_B ; leached with  100 % artificial seawater, wash  2</t>
+  </si>
+  <si>
+    <t>TMP_IS_38_C ; leached with  100 % artificial seawater, wash  2</t>
+  </si>
+  <si>
+    <t>TMP_IS_39_A ; leached with  100 % artificial seawater, wash  3</t>
+  </si>
+  <si>
+    <t>TMP_IS_39_B ; leached with  100 % artificial seawater, wash  3</t>
+  </si>
+  <si>
+    <t>TMP_IS_39_C ; leached with  100 % artificial seawater, wash  3</t>
+  </si>
+  <si>
+    <t>TMP_IS_40_A ; leached with  100 % artificial seawater, wash  4</t>
+  </si>
+  <si>
+    <t>TMP_IS_40_B ; leached with  100 % artificial seawater, wash  4</t>
+  </si>
+  <si>
+    <t>TMP_IS_40_C ; leached with  100 % artificial seawater, wash  4</t>
+  </si>
+  <si>
+    <t>TMP_IS_41_A ; leached with  100 % artificial seawater, wash  5</t>
+  </si>
+  <si>
+    <t>TMP_IS_41_B ; leached with  100 % artificial seawater, wash  5</t>
+  </si>
+  <si>
+    <t>TMP_IS_41_C ; leached with  100 % artificial seawater, wash  5</t>
+  </si>
+  <si>
+    <t>TMP_IS_42_A ; leached with  100 % artificial seawater, wash  6</t>
+  </si>
+  <si>
+    <t>TMP_IS_42_B ; leached with  100 % artificial seawater, wash  6</t>
+  </si>
+  <si>
+    <t>TMP_IS_42_C ; leached with  100 % artificial seawater, wash  6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1172,10 +2210,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1510,10 +2549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{683BF37B-0583-1949-9702-0E54581111A4}">
-  <dimension ref="A1:C122"/>
+  <dimension ref="A1:H240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="B123" sqref="B123"/>
+    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="H224" sqref="H224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2754,7 +3793,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>111</v>
       </c>
@@ -2765,7 +3804,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>112</v>
       </c>
@@ -2776,7 +3815,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>113</v>
       </c>
@@ -2786,8 +3825,9 @@
       <c r="C115" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H115" s="3"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>114</v>
       </c>
@@ -2797,8 +3837,9 @@
       <c r="C116" s="2" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H116" s="3"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>115</v>
       </c>
@@ -2808,8 +3849,9 @@
       <c r="C117" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H117" s="3"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>116</v>
       </c>
@@ -2819,8 +3861,9 @@
       <c r="C118" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H118" s="3"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>117</v>
       </c>
@@ -2830,8 +3873,9 @@
       <c r="C119" s="2" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H119" s="3"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>118</v>
       </c>
@@ -2841,8 +3885,9 @@
       <c r="C120" s="2" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H120" s="3"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>119</v>
       </c>
@@ -2852,8 +3897,9 @@
       <c r="C121" s="2" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H121" s="3"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>120</v>
       </c>
@@ -2863,8 +3909,1390 @@
       <c r="C122" s="2" t="s">
         <v>238</v>
       </c>
+      <c r="H122" s="3"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="H123" s="3"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="H124" s="3"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="H125" s="3"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="H126" s="3"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="H127" s="3"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="H128" s="3"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="H129" s="3"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="H130" s="3"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="H131" s="3"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="H132" s="3"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="H133" s="3"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="H134" s="3"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="H135" s="3"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="H136" s="3"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="H137" s="3"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="H138" s="3"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="H139" s="3"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="H140" s="3"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="H141" s="3"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="H142" s="3"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="H143" s="3"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="H144" s="3"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="H145" s="3"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="H146" s="3"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="H147" s="3"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="H148" s="3"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="H149" s="3"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="H150" s="3"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="H151" s="3"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="H152" s="3"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="H153" s="3"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="H154" s="3"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="H155" s="3"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H156" s="3"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="H157" s="3"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="H158" s="3"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="H159" s="3"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="H160" s="3"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="H161" s="3"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="H162" s="3"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="H163" s="3"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="H164" s="3"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="H165" s="3"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="H166" s="3"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="H167" s="3"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="H168" s="3"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="H169" s="3"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="H170" s="3"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="H171" s="3"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="H172" s="3"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="H173" s="3"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="H174" s="3"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="H175" s="3"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="H176" s="3"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="H177" s="3"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="H178" s="3"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="H179" s="3"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="H180" s="3"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="H181" s="3"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="H182" s="3"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="H183" s="3"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="H184" s="3"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="H185" s="3"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="H186" s="3"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="H187" s="3"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="H188" s="3"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="H189" s="3"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="H190" s="3"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="H191" s="3"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="H192" s="3"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="H193" s="3"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="H194" s="3"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="H195" s="3"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="H196" s="3"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A197" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="H197" s="3"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="H198" s="3"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="H199" s="3"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A200" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="H200" s="3"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A201" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="H201" s="3"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A202" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="H202" s="3"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A203" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="H203" s="3"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A204" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="H204" s="3"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A205" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="H205" s="3"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A206" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="H206" s="3"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A207" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="H207" s="3"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A208" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="H208" s="3"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A209" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="H209" s="3"/>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A210" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="H210" s="3"/>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="H211" s="3"/>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A212" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="H212" s="3"/>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A213" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="H213" s="3"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A214" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="H214" s="3"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A215" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="H215" s="3"/>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A216" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="H216" s="3"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A217" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="H217" s="3"/>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A218" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="H218" s="3"/>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A219" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="H219" s="3"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A220" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="H220" s="3"/>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A221" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="H221" s="3"/>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A222" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="H222" s="3"/>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A223" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="H223" s="3"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A224" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="H224" s="3"/>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A225" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="H225" s="3"/>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A226" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="H226" s="3"/>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A227" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="H227" s="3"/>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A228" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="H228" s="3"/>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A229" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="H229" s="3"/>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A230" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="H230" s="3"/>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A231" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="H231" s="3"/>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A232" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="H232" s="3"/>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A233" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="H233" s="3"/>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A234" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="H234" s="3"/>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A235" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="H235" s="3"/>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A236" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="H236" s="3"/>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H237" s="3"/>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H238" s="3"/>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H239" s="3"/>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H240" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/other files/EMSL_IDs_allsamples.xlsx
+++ b/other files/EMSL_IDs_allsamples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimj704/Github/tempest_ionic_strength/other files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD2E301-1081-974A-9419-985FFE2D4184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEEC1A1-A0A4-BD47-8F23-A611C396EC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{BCD6F2D9-EAA0-D14E-9706-0C9C98D0223A}"/>
   </bookViews>
@@ -2551,8 +2551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{683BF37B-0583-1949-9702-0E54581111A4}">
   <dimension ref="A1:H240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="H224" sqref="H224"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="G218" sqref="G218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
